--- a/BNP Trades Tracker-2025-10-8.xlsx
+++ b/BNP Trades Tracker-2025-10-8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\57. BNP Trades Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7FFC2E-D6B4-4B94-889D-C1DF80B03A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897264E9-2EBE-4744-BB5E-33853BB18A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACAFP Basis" sheetId="1" r:id="rId1"/>
@@ -1014,6 +1014,12 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
+        <stp>BDH|18200886364886194044</stp>
+        <tr r="G3" s="9"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
         <stp>BDP|13030111079165378191</stp>
         <tr r="F10" s="14"/>
       </tp>
@@ -1028,12 +1034,6 @@
         <stp/>
         <stp>BDH|17924025658814998792</stp>
         <tr r="L45" s="14"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16230626229301294290</stp>
-        <tr r="G3" s="9"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
@@ -1089,12 +1089,6 @@
         <stp/>
         <stp>BDH|12465421903874444718</stp>
         <tr r="F45" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|14902072550771643548</stp>
-        <tr r="E3" s="9"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
@@ -1340,6 +1334,12 @@
         <stp/>
         <stp>BDP|416056535068485843</stp>
         <tr r="C10" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|209238618972668341</stp>
+        <tr r="E3" s="9"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
@@ -2500,7 +2500,7 @@
             <c:numRef>
               <c:f>Barclays!$H$15:$H$31</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-43334.599305554519</c:v>
@@ -2613,7 +2613,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3109,13 +3109,16 @@
             <c:numRef>
               <c:f>'EU Banks CDS RV'!$H$15:$H$31</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-1124.1733333332741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2978.7918888889853</c:v>
+                  <c:v>2470.7778888889206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1828.7708888888219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,7 +3213,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3394,8 +3397,11 @@
             <c:numRef>
               <c:f>'EU ETF Compression'!$N$15:$N$31</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-60247.702236505749</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3489,7 +3495,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13309,7 +13315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC04F07A-A306-493C-9741-6E1F9D9D790F}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13319,7 +13327,7 @@
     <col min="5" max="5" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="3"/>
     <col min="11" max="11" width="10.21875" style="3" bestFit="1" customWidth="1"/>
@@ -13639,7 +13647,7 @@
         <f>(A15-$A$14)/360*$C$6*$C$5-(A15-$A$14)/360*$C$7*$C$5*$E$14/100</f>
         <v>875.49305555555566</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="105">
         <f>C15+D15-F15-G15</f>
         <v>-43334.599305554519</v>
       </c>
@@ -13671,7 +13679,7 @@
         <f>(A16-$A$14)/360*$C$6*$C$5-(A16-$A$14)/360*$C$7*$C$5*$E$14/100</f>
         <v>1750.9861111111113</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="105">
         <f>C16+D16-F16-G16</f>
         <v>-34469.198611110463</v>
       </c>
@@ -13703,7 +13711,7 @@
         <f>(A17-$A$14)/360*$C$6*$C$5-(A17-$A$14)/360*$C$7*$C$5*$E$14/100</f>
         <v>2626.4791666666665</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="105">
         <f>C17+D17-F17-G17</f>
         <v>-58363.797916666808</v>
       </c>
@@ -13735,7 +13743,7 @@
         <f>(A18-$A$14)/360*$C$6*$C$5-(A18-$A$14)/360*$C$7*$C$5*$E$14/100</f>
         <v>5252.958333333333</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="105">
         <f>C18+D18-F18-G18</f>
         <v>-39307.595833332867</v>
       </c>
@@ -13767,7 +13775,7 @@
         <f>(A19-$A$14)/360*$C$6*$C$5-(A19-$A$14)/360*$C$7*$C$5*$E$14/100</f>
         <v>6128.4513888888887</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="105">
         <f>C19+D19-F19-G19</f>
         <v>-40162.195138888332</v>
       </c>
@@ -13799,7 +13807,7 @@
         <f>(A20-$A$14)/360*$C$6*$C$5-(A20-$A$14)/360*$C$7*$C$5*$E$14/100</f>
         <v>7003.9444444444453</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="105">
         <f>C20+D20-F20-G20</f>
         <v>-48016.794444443403</v>
       </c>
@@ -14128,7 +14136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1282A558-2182-4AF5-B3B3-E5912781804D}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -15326,7 +15334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2640D6ED-CFA7-40D0-BD54-12C39214CD86}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15335,7 +15345,7 @@
     <col min="5" max="5" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -15346,8 +15356,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="54">
-        <f ca="1">TODAY()-5</f>
-        <v>45933</v>
+        <f ca="1">TODAY()-7</f>
+        <v>45931</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -15383,20 +15393,20 @@
         <v>54</v>
       </c>
       <c r="E3" s="53" cm="1">
-        <f t="array" aca="1" ref="E3:F3" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
-        <v>45938</v>
+        <f t="array" aca="1" ref="E3:F5" ca="1">_xll.BDH($B$4, "PX_LAST, ",E1, "")</f>
+        <v>45931</v>
       </c>
       <c r="F3" s="1">
         <f ca="1"/>
-        <v>92.989000000000004</v>
-      </c>
-      <c r="G3" s="53" cm="1">
-        <f t="array" aca="1" ref="G3:H6" ca="1">_xll.BDH($C$4, "PX_LAST, ",E1, "")</f>
-        <v>45933</v>
+        <v>93.427999999999997</v>
+      </c>
+      <c r="G3" s="94" cm="1">
+        <f t="array" aca="1" ref="G3:H8" ca="1">_xll.BDH($C$4, "PX_LAST, ",E1, "")</f>
+        <v>45931</v>
       </c>
       <c r="H3" s="47">
         <f ca="1"/>
-        <v>45.582000000000001</v>
+        <v>45.883000000000003</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15410,15 +15420,21 @@
       <c r="C4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="54">
-        <f ca="1"/>
-        <v>45936</v>
+      <c r="E4" s="54">
+        <f ca="1"/>
+        <v>45932</v>
+      </c>
+      <c r="F4" s="1">
+        <f ca="1"/>
+        <v>92.248999999999995</v>
+      </c>
+      <c r="G4" s="96">
+        <f ca="1"/>
+        <v>45932</v>
       </c>
       <c r="H4" s="1">
         <f ca="1"/>
-        <v>46.14</v>
+        <v>46.127000000000002</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -15434,15 +15450,21 @@
         <f>39*10^6</f>
         <v>39000000</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="54">
-        <f ca="1"/>
-        <v>45937</v>
+      <c r="E5" s="54">
+        <f ca="1"/>
+        <v>45938</v>
+      </c>
+      <c r="F5" s="1">
+        <f ca="1"/>
+        <v>92.66</v>
+      </c>
+      <c r="G5" s="96">
+        <f ca="1"/>
+        <v>45933</v>
       </c>
       <c r="H5" s="1">
         <f ca="1"/>
-        <v>46.350999999999999</v>
+        <v>45.582000000000001</v>
       </c>
       <c r="I5" s="1"/>
       <c r="L5" s="62"/>
@@ -15459,13 +15481,13 @@
       </c>
       <c r="E6" s="54"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="54">
-        <f ca="1"/>
-        <v>45938</v>
+      <c r="G6" s="96">
+        <f ca="1"/>
+        <v>45936</v>
       </c>
       <c r="H6" s="1">
         <f ca="1"/>
-        <v>46.363999999999997</v>
+        <v>46.14</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -15481,8 +15503,14 @@
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="96">
+        <f ca="1"/>
+        <v>45937</v>
+      </c>
+      <c r="H7" s="1">
+        <f ca="1"/>
+        <v>46.350999999999999</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -15497,8 +15525,14 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="96">
+        <f ca="1"/>
+        <v>45938</v>
+      </c>
+      <c r="H8" s="1">
+        <f ca="1"/>
+        <v>46.362000000000002</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -15600,7 +15634,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -15629,7 +15663,7 @@
         <f t="shared" ref="G15" si="3">$C$6*(A15-$A$14)/360*$C$5</f>
         <v>3250</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="105">
         <f>C15+D15-F15-G15</f>
         <v>-1124.1733333332741</v>
       </c>
@@ -15651,19 +15685,19 @@
         <v>2222.2222222222222</v>
       </c>
       <c r="E16" s="46">
-        <v>46.377000000000002</v>
+        <v>46.350999999999999</v>
       </c>
       <c r="F16" s="31">
         <f t="shared" ref="F16" si="6">-1*(E16-$E$14)*10^-4*$C$8*$C$5</f>
-        <v>-26905.203000000049</v>
+        <v>-26397.188999999984</v>
       </c>
       <c r="G16" s="32">
         <f>$C$6*(A16-$A$14)/360*$C$5</f>
         <v>4333.3333333333339</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="105">
         <f>C16+D16-F16-G16</f>
-        <v>2978.7918888889853</v>
+        <v>2470.7778888889206</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -15671,13 +15705,32 @@
       <c r="A17" s="37">
         <v>45938</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="46">
+        <v>92.66</v>
+      </c>
+      <c r="C17" s="31">
+        <f t="shared" ref="C17" si="7">-1*(B17-$B$14)*10^-4*$B$8*$B$5</f>
+        <v>-25801.999999999967</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" ref="D17" si="8">$B$6*(A17-$A$14)/360*$B$5</f>
+        <v>2777.7777777777778</v>
+      </c>
+      <c r="E17" s="46">
+        <v>46.362000000000002</v>
+      </c>
+      <c r="F17" s="31">
+        <f t="shared" ref="F17" si="9">-1*(E17-$E$14)*10^-4*$C$8*$C$5</f>
+        <v>-26612.118000000035</v>
+      </c>
+      <c r="G17" s="32">
+        <f>$C$6*(A17-$A$14)/360*$C$5</f>
+        <v>5416.666666666667</v>
+      </c>
+      <c r="H17" s="105">
+        <f>C17+D17-F17-G17</f>
+        <v>-1828.7708888888219</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -15690,7 +15743,7 @@
       <c r="E18" s="46"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="105"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -16036,9 +16089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201AFA43-48F1-405E-9185-E3F7C0AEBF7A}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16051,7 +16102,7 @@
     <col min="10" max="10" width="13.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.5546875" style="55" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="55"/>
   </cols>
   <sheetData>
@@ -16511,25 +16562,60 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="105"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>45938</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="39"/>
+      <c r="B15" s="79">
+        <v>92.19</v>
+      </c>
+      <c r="C15" s="31">
+        <f>(B15/$B$14-1)*$B$5</f>
+        <v>-48717.115946736441</v>
+      </c>
+      <c r="D15" s="32">
+        <f>-1*(A15-$A$14)/360*$B$7*$B$5</f>
+        <v>-2937.5</v>
+      </c>
+      <c r="E15" s="79">
+        <v>100.989</v>
+      </c>
+      <c r="F15" s="31">
+        <f>(E15-$E$14)/100*$C$5</f>
+        <v>17799.999999999727</v>
+      </c>
+      <c r="G15" s="32">
+        <f>(A15-$A$14)/360*$C$6*$C$5-(A15-$A$14)/360*$C$7*$C$5*$E$14/100</f>
+        <v>-1037.8166666666666</v>
+      </c>
+      <c r="H15" s="79">
+        <v>121.09</v>
+      </c>
+      <c r="I15" s="31">
+        <f>(H15/$H$14-1)*$D$5</f>
+        <v>67576.509511990676</v>
+      </c>
+      <c r="J15" s="32">
+        <f>-1*(A15-$A$14)/360*$D$7*$D$5</f>
+        <v>-5052.5</v>
+      </c>
+      <c r="K15" s="79">
+        <v>99.658000000000001</v>
+      </c>
+      <c r="L15" s="31">
+        <f>(K15-$K$14)/100*$E$5</f>
+        <v>72979.99999999888</v>
+      </c>
+      <c r="M15" s="32">
+        <f>(A15-$A$14)/360*$E$6*$E$5-(A15-$A$14)/360*$E$7*$E$5*$K$14/100</f>
+        <v>-2286.8934444444453</v>
+      </c>
+      <c r="N15" s="105">
+        <f>C15+D15-F15-G15-I15-J15+L15+M15</f>
+        <v>-60247.702236505749</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
@@ -16547,7 +16633,7 @@
       <c r="K16" s="79"/>
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
-      <c r="N16" s="39"/>
+      <c r="N16" s="105"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
@@ -16565,7 +16651,7 @@
       <c r="K17" s="79"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
-      <c r="N17" s="39"/>
+      <c r="N17" s="105"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
